--- a/data/05_input/zm.rn18i.xlsx
+++ b/data/05_input/zm.rn18i.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/2A94088B-4467-417B-999B-E357D19C7DCD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/CE6F41B5-A972-42DA-9452-E30333A674D5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62DCE3-DC31-894D-810E-B74E6611FA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45C9F52-8B93-1848-945B-06EC1343D3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="10160" yWindow="1800" windowWidth="13900" windowHeight="18840" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="263">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,754 +63,757 @@
     <t>B73</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-A-R1_S119_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s002</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-A-R1_S43_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s003</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-A-R2_S120_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s004</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-A-R2_S44_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s005</t>
   </si>
   <si>
     <t>ear</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-IE-R1_S113_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s006</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-IE-R1_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s007</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-IE-R2_S114_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s008</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-IE-R2_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s009</t>
   </si>
   <si>
     <t>embryo</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-Em-R1_S131_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s010</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-Em-R1_S55_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s011</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-Em-R2_S132_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s012</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-Em-R2_S56_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s013</t>
   </si>
   <si>
     <t>endosperm</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-En-R1_S125_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s014</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-En-R1_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s015</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-En-R2_S126_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s016</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-En-R2_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s017</t>
   </si>
   <si>
     <t>internode</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-I-R1_S89_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s018</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-I-R1_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s019</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-I-R2_S90_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s020</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-I-R2_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s021</t>
   </si>
   <si>
     <t>leaf10</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-L10-R1_S95_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s022</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-L10-R1_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s023</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-L10-R2_S96_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s024</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-L10-R2_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s025</t>
   </si>
   <si>
     <t>leaf30</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-L-R1_S101_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s026</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-L-R1_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s027</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-L-R2_S102_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s028</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-L-R2_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s029</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-R-R1_S77_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s030</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-R-R1_S1_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s031</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-R-R2_S78_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s032</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-R-R2_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s033</t>
   </si>
   <si>
     <t>shoot</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-SC-R1_S83_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s034</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-SC-R1_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s035</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-SC-R2_S84_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s036</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-SC-R2_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s037</t>
   </si>
   <si>
     <t>tassel</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-T-R1_S107_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s038</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-T-R1_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s039</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/B-T-R2_S108_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s040</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/B-T-R2_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s041</t>
   </si>
   <si>
     <t>PH207</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-A-R1_S121_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s042</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-A-R1_S45_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s043</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-A-R2_S122_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s044</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-A-R2_S46_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s045</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-IE-R1_S115_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s046</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-IE-R1_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s047</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-IE-R2_S116_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s048</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-IE-R2_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s049</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-Em-R1_S133_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s050</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-Em-R1_S57_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s051</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-Em-R2_S134_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s052</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-Em-R2_S58_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s053</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-En-R1_S127_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s054</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-En-R1_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s055</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-En-R2_S128_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s056</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-En-R2_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s057</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-I-R1_S91_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s058</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-I-R1_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s059</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-I-R2_S92_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s060</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-I-R2_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s061</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-L10-R1_S97_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s062</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-L10-R1_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s063</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-L10-R2_S98_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s064</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-L10-R2_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s065</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-L-R1_S103_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s066</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-L-R1_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s067</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-L-R2_S104_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s068</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-L-R2_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s069</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-R-R1_S79_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s070</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-R-R1_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s071</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-R-R2_S80_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s072</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-R-R2_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s073</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-SC-R1_S85_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s074</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-SC-R1_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s075</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-SC-R2_S86_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s076</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-SC-R2_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s077</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-T-R1_S109_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s078</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-T-R1_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s079</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/P-T-R2_S110_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s080</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/P-T-R2_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s081</t>
   </si>
   <si>
     <t>W22</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-A-R1_S123_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s082</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-A-R1_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s083</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-A-R2_S124_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s084</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-A-R2_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s085</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-IE-R1_S117_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s086</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-IE-R1_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s087</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-IE-R2_S118_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s088</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-IE-R2_S42_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s089</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-Em-R1_S135_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s090</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-Em-R1_S59_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s091</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-Em-R2_S136_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s092</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-Em-R2_S60_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s093</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-En-R1_S129_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s094</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-En-R1_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s095</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-En-R2_S130_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s096</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-En-R2_S54_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s097</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-I-R1_S93_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s098</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-I-R1_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s099</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-I-R2_S94_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s100</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-I-R2_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s101</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-L10-R1_S99_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s102</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-L10-R1_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s103</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-L10-R2_S100_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s104</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-L10-R2_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s105</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-L-R1_S105_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s106</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-L-R1_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s107</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-L-R2_S106_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s108</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-L-R2_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s109</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-R-R1_S81_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s110</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-R-R1_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s111</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-R-R2_S82_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s112</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-R-R2_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s113</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-SC-R1_S87_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s114</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-SC-R1_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s115</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-SC-R2_S88_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s116</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-SC-R2_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s117</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-T-R1_S111_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s118</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-T-R1_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s119</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180509_D00635_0371_BCC5NGANXX/Hirsch2_Project_001/W-T-R2_S112_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s120</t>
   </si>
   <si>
-    <t>/home/hirschc1/data_release/umgc/hiseq/180522_D00635_0375_BCCJL5ANXX/Hirsch2_Project_001/W-T-R2_S36_R1_001.fastq.gz</t>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-A-R1_S119_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-A-R1_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-A-R2_S120_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-A-R2_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-IE-R1_S113_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-IE-R1_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-IE-R2_S114_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-IE-R2_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-Em-R1_S131_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-Em-R1_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-Em-R2_S132_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-Em-R2_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-En-R1_S125_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-En-R1_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-En-R2_S126_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-En-R2_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-I-R1_S89_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-I-R1_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-I-R2_S90_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-I-R2_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-L10-R1_S95_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-L10-R1_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-L10-R2_S96_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-L10-R2_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-L-R1_S101_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-L-R1_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-L-R2_S102_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-L-R2_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-R-R1_S77_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-R-R1_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-R-R2_S78_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-R-R2_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-SC-R1_S83_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-SC-R1_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-SC-R2_S84_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-SC-R2_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-T-R1_S107_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-T-R1_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/B-T-R2_S108_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/B-T-R2_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-A-R1_S121_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-A-R1_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-A-R2_S122_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-A-R2_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-IE-R1_S115_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-IE-R1_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-IE-R2_S116_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-IE-R2_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-Em-R1_S133_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-Em-R1_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-Em-R2_S134_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-Em-R2_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-En-R1_S127_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-En-R1_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-En-R2_S128_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-En-R2_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-I-R1_S91_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-I-R1_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-I-R2_S92_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-I-R2_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-L10-R1_S97_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-L10-R1_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-L10-R2_S98_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-L10-R2_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-L-R1_S103_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-L-R1_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-L-R2_S104_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-L-R2_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-R-R1_S79_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-R-R1_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-R-R2_S80_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-R-R2_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-SC-R1_S85_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-SC-R1_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-SC-R2_S86_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-SC-R2_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-T-R1_S109_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-T-R1_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/P-T-R2_S110_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/P-T-R2_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-A-R1_S123_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-A-R1_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-A-R2_S124_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-A-R2_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-IE-R1_S117_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-IE-R1_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-IE-R2_S118_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-IE-R2_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-Em-R1_S135_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-Em-R1_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-Em-R2_S136_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-Em-R2_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-En-R1_S129_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-En-R1_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-En-R2_S130_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-En-R2_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-I-R1_S93_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-I-R1_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-I-R2_S94_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-I-R2_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-L10-R1_S99_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-L10-R1_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-L10-R2_S100_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-L10-R2_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-L-R1_S105_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-L-R1_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-L-R2_S106_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-L-R2_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-R-R1_S81_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-R-R1_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-R-R2_S82_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-R-R2_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-SC-R1_S87_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-SC-R1_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-SC-R2_S88_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-SC-R2_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-T-R1_S111_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-T-R1_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180509_D00635_0371_BCC5NGANXX/W-T-R2_S112_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180522_D00635_0375_BCCJL5ANXX/W-T-R2_S36_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1168,8 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G2:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,16 +1219,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1236,16 +1239,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1256,16 +1259,16 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1276,19 +1279,19 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1296,19 +1299,19 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1316,19 +1319,19 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1336,19 +1339,19 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1356,19 +1359,19 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1376,19 +1379,19 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1396,19 +1399,19 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1436,19 +1439,19 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1456,19 +1459,19 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1476,19 +1479,19 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1496,19 +1499,19 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1516,19 +1519,19 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1536,19 +1539,19 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1556,19 +1559,19 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1576,19 +1579,19 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1596,19 +1599,19 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1616,19 +1619,19 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1636,19 +1639,19 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
+      <c r="F23" t="s">
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1656,19 +1659,19 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1676,19 +1679,19 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
+      <c r="F25" t="s">
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1696,19 +1699,19 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1716,19 +1719,19 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1736,19 +1739,19 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1756,19 +1759,19 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" t="b">
-        <v>0</v>
+      <c r="F29" t="s">
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1776,19 +1779,19 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
+      <c r="F30" t="s">
+        <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1796,19 +1799,19 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
+      <c r="F31" t="s">
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1816,19 +1819,19 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
+      <c r="F32" t="s">
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1836,19 +1839,19 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
+      <c r="F33" t="s">
+        <v>142</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1856,19 +1859,19 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
+      <c r="F34" t="s">
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1876,19 +1879,19 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
+      <c r="F35" t="s">
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1896,19 +1899,19 @@
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1916,19 +1919,19 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
+      <c r="F37" t="s">
+        <v>142</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1936,19 +1939,19 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
+      <c r="F38" t="s">
+        <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1956,19 +1959,19 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
+      <c r="F39" t="s">
+        <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1976,19 +1979,19 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
+      <c r="F40" t="s">
+        <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1996,1611 +1999,1611 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
+      <c r="F41" t="s">
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="b">
-        <v>0</v>
+      <c r="F42" t="s">
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="b">
-        <v>0</v>
+      <c r="F43" t="s">
+        <v>142</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" t="b">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" t="b">
-        <v>0</v>
+      <c r="F45" t="s">
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="b">
-        <v>0</v>
+      <c r="F46" t="s">
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="b">
-        <v>0</v>
+      <c r="F47" t="s">
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
+      <c r="F48" t="s">
+        <v>142</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" t="b">
-        <v>0</v>
+      <c r="F49" t="s">
+        <v>142</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="b">
-        <v>0</v>
+      <c r="F50" t="s">
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
+      <c r="F51" t="s">
+        <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
+      <c r="F52" t="s">
+        <v>142</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53" t="b">
-        <v>0</v>
+      <c r="F53" t="s">
+        <v>142</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" t="b">
-        <v>0</v>
+      <c r="F54" t="s">
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="b">
-        <v>0</v>
+      <c r="F55" t="s">
+        <v>142</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" t="b">
-        <v>0</v>
+      <c r="F56" t="s">
+        <v>142</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
+      <c r="F57" t="s">
+        <v>142</v>
       </c>
       <c r="G57" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="b">
-        <v>0</v>
+      <c r="F58" t="s">
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="b">
-        <v>0</v>
+      <c r="F59" t="s">
+        <v>142</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
-      <c r="F60" t="b">
-        <v>0</v>
+      <c r="F60" t="s">
+        <v>142</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="F61" t="b">
-        <v>0</v>
+      <c r="F61" t="s">
+        <v>142</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="b">
-        <v>0</v>
+      <c r="F62" t="s">
+        <v>142</v>
       </c>
       <c r="G62" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="b">
-        <v>0</v>
+      <c r="F63" t="s">
+        <v>142</v>
       </c>
       <c r="G63" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" t="b">
-        <v>0</v>
+      <c r="F64" t="s">
+        <v>142</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
-      <c r="F65" t="b">
-        <v>0</v>
+      <c r="F65" t="s">
+        <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="b">
-        <v>0</v>
+      <c r="F66" t="s">
+        <v>142</v>
       </c>
       <c r="G66" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" t="b">
-        <v>0</v>
+      <c r="F67" t="s">
+        <v>142</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
-      <c r="F68" t="b">
-        <v>0</v>
+      <c r="F68" t="s">
+        <v>142</v>
       </c>
       <c r="G68" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69" t="b">
-        <v>0</v>
+      <c r="F69" t="s">
+        <v>142</v>
       </c>
       <c r="G69" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="b">
-        <v>0</v>
+      <c r="F70" t="s">
+        <v>142</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="b">
-        <v>0</v>
+      <c r="F71" t="s">
+        <v>142</v>
       </c>
       <c r="G71" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="F72" t="b">
-        <v>0</v>
+      <c r="F72" t="s">
+        <v>142</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73" t="b">
-        <v>0</v>
+      <c r="F73" t="s">
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="b">
-        <v>0</v>
+      <c r="F74" t="s">
+        <v>142</v>
       </c>
       <c r="G74" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="b">
-        <v>0</v>
+      <c r="F75" t="s">
+        <v>142</v>
       </c>
       <c r="G75" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
+      <c r="F76" t="s">
+        <v>142</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77" t="b">
-        <v>0</v>
+      <c r="F77" t="s">
+        <v>142</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" t="b">
-        <v>0</v>
+      <c r="F78" t="s">
+        <v>142</v>
       </c>
       <c r="G78" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" t="b">
-        <v>0</v>
+      <c r="F79" t="s">
+        <v>142</v>
       </c>
       <c r="G79" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
-      <c r="F80" t="b">
-        <v>0</v>
+      <c r="F80" t="s">
+        <v>142</v>
       </c>
       <c r="G80" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
-      <c r="F81" t="b">
-        <v>0</v>
+      <c r="F81" t="s">
+        <v>142</v>
       </c>
       <c r="G81" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" t="b">
-        <v>0</v>
+      <c r="F82" t="s">
+        <v>142</v>
       </c>
       <c r="G82" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83" t="b">
-        <v>0</v>
+      <c r="F83" t="s">
+        <v>142</v>
       </c>
       <c r="G83" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="F84" t="b">
-        <v>0</v>
+      <c r="F84" t="s">
+        <v>142</v>
       </c>
       <c r="G84" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
+      <c r="F85" t="s">
+        <v>142</v>
       </c>
       <c r="G85" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="b">
-        <v>0</v>
+      <c r="F86" t="s">
+        <v>142</v>
       </c>
       <c r="G86" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" t="b">
-        <v>0</v>
+      <c r="F87" t="s">
+        <v>142</v>
       </c>
       <c r="G87" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
-      <c r="F88" t="b">
-        <v>0</v>
+      <c r="F88" t="s">
+        <v>142</v>
       </c>
       <c r="G88" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
-      <c r="F89" t="b">
-        <v>0</v>
+      <c r="F89" t="s">
+        <v>142</v>
       </c>
       <c r="G89" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90" t="b">
-        <v>0</v>
+      <c r="F90" t="s">
+        <v>142</v>
       </c>
       <c r="G90" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91" t="b">
-        <v>0</v>
+      <c r="F91" t="s">
+        <v>142</v>
       </c>
       <c r="G91" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
-      <c r="F92" t="b">
-        <v>0</v>
+      <c r="F92" t="s">
+        <v>142</v>
       </c>
       <c r="G92" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
-      <c r="F93" t="b">
-        <v>0</v>
+      <c r="F93" t="s">
+        <v>142</v>
       </c>
       <c r="G93" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" t="b">
-        <v>0</v>
+      <c r="F94" t="s">
+        <v>142</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" t="b">
-        <v>0</v>
+      <c r="F95" t="s">
+        <v>142</v>
       </c>
       <c r="G95" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
-      <c r="F96" t="b">
-        <v>0</v>
+      <c r="F96" t="s">
+        <v>142</v>
       </c>
       <c r="G96" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
-      <c r="F97" t="b">
-        <v>0</v>
+      <c r="F97" t="s">
+        <v>142</v>
       </c>
       <c r="G97" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" t="b">
-        <v>0</v>
+      <c r="F98" t="s">
+        <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99" t="b">
-        <v>0</v>
+      <c r="F99" t="s">
+        <v>142</v>
       </c>
       <c r="G99" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" t="b">
-        <v>0</v>
+      <c r="F100" t="s">
+        <v>142</v>
       </c>
       <c r="G100" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
+      <c r="F101" t="s">
+        <v>142</v>
       </c>
       <c r="G101" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102" t="b">
-        <v>0</v>
+      <c r="F102" t="s">
+        <v>142</v>
       </c>
       <c r="G102" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
-      <c r="F103" t="b">
-        <v>0</v>
+      <c r="F103" t="s">
+        <v>142</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" t="b">
-        <v>0</v>
+      <c r="F104" t="s">
+        <v>142</v>
       </c>
       <c r="G104" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
-      <c r="F105" t="b">
-        <v>0</v>
+      <c r="F105" t="s">
+        <v>142</v>
       </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
-      <c r="F106" t="b">
-        <v>0</v>
+      <c r="F106" t="s">
+        <v>142</v>
       </c>
       <c r="G106" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" t="b">
-        <v>0</v>
+      <c r="F107" t="s">
+        <v>142</v>
       </c>
       <c r="G107" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
-      <c r="F108" t="b">
-        <v>0</v>
+      <c r="F108" t="s">
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
-      <c r="F109" t="b">
-        <v>0</v>
+      <c r="F109" t="s">
+        <v>142</v>
       </c>
       <c r="G109" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C110" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110" t="b">
-        <v>0</v>
+      <c r="F110" t="s">
+        <v>142</v>
       </c>
       <c r="G110" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="F111" t="b">
-        <v>0</v>
+      <c r="F111" t="s">
+        <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
-      <c r="F112" t="b">
-        <v>0</v>
+      <c r="F112" t="s">
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
-      <c r="F113" t="b">
-        <v>0</v>
+      <c r="F113" t="s">
+        <v>142</v>
       </c>
       <c r="G113" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C114" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="F114" t="b">
-        <v>0</v>
+      <c r="F114" t="s">
+        <v>142</v>
       </c>
       <c r="G114" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C115" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115" t="b">
-        <v>0</v>
+      <c r="F115" t="s">
+        <v>142</v>
       </c>
       <c r="G115" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
-      <c r="F116" t="b">
-        <v>0</v>
+      <c r="F116" t="s">
+        <v>142</v>
       </c>
       <c r="G116" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
-      <c r="F117" t="b">
-        <v>0</v>
+      <c r="F117" t="s">
+        <v>142</v>
       </c>
       <c r="G117" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118" t="b">
-        <v>0</v>
+      <c r="F118" t="s">
+        <v>142</v>
       </c>
       <c r="G118" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
-      <c r="F119" t="b">
-        <v>0</v>
+      <c r="F119" t="s">
+        <v>142</v>
       </c>
       <c r="G119" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
-      <c r="F120" t="b">
-        <v>0</v>
+      <c r="F120" t="s">
+        <v>142</v>
       </c>
       <c r="G120" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
-      <c r="F121" t="b">
-        <v>0</v>
+      <c r="F121" t="s">
+        <v>142</v>
       </c>
       <c r="G121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
